--- a/public/files/menus.xlsx
+++ b/public/files/menus.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjU2z064TMaLC8A8k/Xr52YkyRMPA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjh+6zRFLF19NC8AyYJWOGdFaH4uQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -52,28 +52,13 @@
   </si>
   <si>
     <t>Fuchka</t>
-  </si>
-  <si>
-    <t>Misti Doi</t>
-  </si>
-  <si>
-    <t>Doi Chira</t>
-  </si>
-  <si>
-    <t>Rasmalai</t>
-  </si>
-  <si>
-    <t>Borhani</t>
-  </si>
-  <si>
-    <t>Sweet Lassi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -88,11 +73,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="4">
@@ -121,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -132,9 +112,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -355,17 +332,6 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="36.14"/>
     <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="13.43"/>
-    <col customWidth="1" min="4" max="4" width="7.14"/>
-    <col customWidth="1" min="5" max="5" width="8.57"/>
-    <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="10.29"/>
-    <col customWidth="1" min="8" max="8" width="5.71"/>
-    <col customWidth="1" min="9" max="9" width="7.29"/>
-    <col customWidth="1" min="10" max="10" width="10.14"/>
-    <col customWidth="1" min="11" max="11" width="11.57"/>
-    <col customWidth="1" min="12" max="15" width="16.43"/>
-    <col customWidth="1" min="16" max="20" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -445,46 +411,6 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
